--- a/Code/Results/Cases/Case_6_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_63/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.879244847756667</v>
+        <v>0.9465764016671301</v>
       </c>
       <c r="C2">
-        <v>0.2505074270306693</v>
+        <v>0.07430575001447437</v>
       </c>
       <c r="D2">
-        <v>0.4124973931725009</v>
+        <v>0.4816652707650206</v>
       </c>
       <c r="E2">
-        <v>0.0374940233911838</v>
+        <v>0.05040575522018997</v>
       </c>
       <c r="F2">
-        <v>6.781005913307979</v>
+        <v>7.114039547980951</v>
       </c>
       <c r="G2">
-        <v>0.000828991398691015</v>
+        <v>0.0008654407987632724</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4228608942219694</v>
+        <v>0.7204734593254329</v>
       </c>
       <c r="L2">
-        <v>0.1471839545266036</v>
+        <v>0.1449802140182541</v>
       </c>
       <c r="M2">
-        <v>0.3365494615706268</v>
+        <v>0.2070247461445511</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.634994671247199</v>
+        <v>0.8372253379644121</v>
       </c>
       <c r="C3">
-        <v>0.2163252376756475</v>
+        <v>0.06694305829245906</v>
       </c>
       <c r="D3">
-        <v>0.3763036092831271</v>
+        <v>0.4439839194742063</v>
       </c>
       <c r="E3">
-        <v>0.0362530146165243</v>
+        <v>0.04780406648754365</v>
       </c>
       <c r="F3">
-        <v>6.048952323113099</v>
+        <v>6.412762340497807</v>
       </c>
       <c r="G3">
-        <v>0.0008394868983905041</v>
+        <v>0.0008741365606473953</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3636092806235709</v>
+        <v>0.6248699621141469</v>
       </c>
       <c r="L3">
-        <v>0.1335461818155963</v>
+        <v>0.1320971762231267</v>
       </c>
       <c r="M3">
-        <v>0.2955578024224437</v>
+        <v>0.1848673435865216</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.489681526037373</v>
+        <v>0.7723032467699511</v>
       </c>
       <c r="C4">
-        <v>0.1958449682596068</v>
+        <v>0.06250842901069831</v>
       </c>
       <c r="D4">
-        <v>0.354498115804958</v>
+        <v>0.4210775160564708</v>
       </c>
       <c r="E4">
-        <v>0.03550761213797404</v>
+        <v>0.04624217310302292</v>
       </c>
       <c r="F4">
-        <v>5.609102706402723</v>
+        <v>5.988542959008868</v>
       </c>
       <c r="G4">
-        <v>0.0008460731518734165</v>
+        <v>0.0008796102857063891</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3283080803243124</v>
+        <v>0.5680449749327465</v>
       </c>
       <c r="L4">
-        <v>0.1254405879297096</v>
+        <v>0.1244142100542192</v>
       </c>
       <c r="M4">
-        <v>0.2711797938544862</v>
+        <v>0.1716983657517979</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.431497861229985</v>
+        <v>0.7463517131905064</v>
       </c>
       <c r="C5">
-        <v>0.1876035150743434</v>
+        <v>0.06071770032950141</v>
       </c>
       <c r="D5">
-        <v>0.3456990853519244</v>
+        <v>0.411787454137226</v>
       </c>
       <c r="E5">
-        <v>0.03520712755444411</v>
+        <v>0.04561375779982413</v>
       </c>
       <c r="F5">
-        <v>5.431936547718834</v>
+        <v>5.81703785551278</v>
       </c>
       <c r="G5">
-        <v>0.0008487955357999281</v>
+        <v>0.0008818764193109927</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3141591129452479</v>
+        <v>0.5453094632100317</v>
       </c>
       <c r="L5">
-        <v>0.1221981660439226</v>
+        <v>0.1213354769440826</v>
       </c>
       <c r="M5">
-        <v>0.2614220208785127</v>
+        <v>0.1664313614813473</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.421895088607016</v>
+        <v>0.7420714883122059</v>
       </c>
       <c r="C6">
-        <v>0.1862407020523307</v>
+        <v>0.06042119893300679</v>
       </c>
       <c r="D6">
-        <v>0.3442427631057114</v>
+        <v>0.410247161942749</v>
       </c>
       <c r="E6">
-        <v>0.03515740562470437</v>
+        <v>0.04550987310425647</v>
       </c>
       <c r="F6">
-        <v>5.402634133372061</v>
+        <v>5.788635702264372</v>
       </c>
       <c r="G6">
-        <v>0.000849249981886457</v>
+        <v>0.0008822549038673246</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3118230220892144</v>
+        <v>0.5415582869755013</v>
       </c>
       <c r="L6">
-        <v>0.1216632442051662</v>
+        <v>0.120827265825028</v>
       </c>
       <c r="M6">
-        <v>0.2598117938197113</v>
+        <v>0.1655625069055944</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.488892832712253</v>
+        <v>0.7719512790023373</v>
       </c>
       <c r="C7">
-        <v>0.1957334272615014</v>
+        <v>0.06248421870587606</v>
       </c>
       <c r="D7">
-        <v>0.354379119923351</v>
+        <v>0.4209520638381008</v>
       </c>
       <c r="E7">
-        <v>0.0355035475598795</v>
+        <v>0.04623366650475624</v>
       </c>
       <c r="F7">
-        <v>5.60670540924022</v>
+        <v>5.986224738192476</v>
       </c>
       <c r="G7">
-        <v>0.0008461097077893182</v>
+        <v>0.0008796407015858598</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.328116348125711</v>
+        <v>0.567736714437757</v>
       </c>
       <c r="L7">
-        <v>0.1253966222598351</v>
+        <v>0.1243724844063649</v>
       </c>
       <c r="M7">
-        <v>0.2710475106723322</v>
+        <v>0.1716269431294819</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.79397273203918</v>
+        <v>0.9083777443533165</v>
       </c>
       <c r="C8">
-        <v>0.2386012103032868</v>
+        <v>0.07174592121783618</v>
       </c>
       <c r="D8">
-        <v>0.399919610286176</v>
+        <v>0.468616584199907</v>
       </c>
       <c r="E8">
-        <v>0.0370621098831263</v>
+        <v>0.04950076601395281</v>
       </c>
       <c r="F8">
-        <v>6.526374663175432</v>
+        <v>6.870770794768362</v>
       </c>
       <c r="G8">
-        <v>0.0008325825086999389</v>
+        <v>0.0008684122669430418</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4021846968069909</v>
+        <v>0.6870881438952381</v>
       </c>
       <c r="L8">
-        <v>0.1424217519637523</v>
+        <v>0.1404878219116341</v>
       </c>
       <c r="M8">
-        <v>0.3222371068850691</v>
+        <v>0.1992880666703485</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.436300891013673</v>
+        <v>1.196207664645499</v>
       </c>
       <c r="C9">
-        <v>0.327896588356694</v>
+        <v>0.09085557406105949</v>
       </c>
       <c r="D9">
-        <v>0.4934626235085915</v>
+        <v>0.5645793172939051</v>
       </c>
       <c r="E9">
-        <v>0.04029655465345527</v>
+        <v>0.05623322486737692</v>
       </c>
       <c r="F9">
-        <v>8.423977027129609</v>
+        <v>8.667565875365995</v>
       </c>
       <c r="G9">
-        <v>0.0008070432166878795</v>
+        <v>0.0008473745542679052</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5577929543193747</v>
+        <v>0.9385636033910316</v>
       </c>
       <c r="L9">
-        <v>0.1782781662391812</v>
+        <v>0.1741439509730398</v>
       </c>
       <c r="M9">
-        <v>0.4300470332744055</v>
+        <v>0.2574961865808305</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.946584355562777</v>
+        <v>1.424264741029532</v>
       </c>
       <c r="C10">
-        <v>0.3986566985865636</v>
+        <v>0.1058922304663952</v>
       </c>
       <c r="D10">
-        <v>0.5662559872473594</v>
+        <v>0.6376420334309785</v>
       </c>
       <c r="E10">
-        <v>0.04285783499686069</v>
+        <v>0.06144616493169153</v>
       </c>
       <c r="F10">
-        <v>9.903948990376335</v>
+        <v>10.04383864467783</v>
       </c>
       <c r="G10">
-        <v>0.0007886588825916599</v>
+        <v>0.000832382755473926</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.681343014600607</v>
+        <v>1.137946899356905</v>
       </c>
       <c r="L10">
-        <v>0.2066781655548908</v>
+        <v>0.2005150203064545</v>
       </c>
       <c r="M10">
-        <v>0.515639733734254</v>
+        <v>0.3034739337474193</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.190171293588719</v>
+        <v>1.532708306709537</v>
       </c>
       <c r="C11">
-        <v>0.4325072206440268</v>
+        <v>0.1130597728233695</v>
       </c>
       <c r="D11">
-        <v>0.6006528749434494</v>
+        <v>0.6717023160849465</v>
       </c>
       <c r="E11">
-        <v>0.04408433119141275</v>
+        <v>0.06389302013351283</v>
       </c>
       <c r="F11">
-        <v>10.60348627169134</v>
+        <v>10.68682650840896</v>
       </c>
       <c r="G11">
-        <v>0.0007803181762865795</v>
+        <v>0.0008256293369159906</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7403427875905422</v>
+        <v>1.232867436748307</v>
       </c>
       <c r="L11">
-        <v>0.2201917863013279</v>
+        <v>0.2129695551333839</v>
       </c>
       <c r="M11">
-        <v>0.5564659186664755</v>
+        <v>0.3252935494648028</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.284373044188044</v>
+        <v>1.574554474739244</v>
       </c>
       <c r="C12">
-        <v>0.4456197650467288</v>
+        <v>0.1158318797354454</v>
       </c>
       <c r="D12">
-        <v>0.6139024182166111</v>
+        <v>0.6847440297472644</v>
       </c>
       <c r="E12">
-        <v>0.04455977506827313</v>
+        <v>0.06483210204259393</v>
       </c>
       <c r="F12">
-        <v>10.87292689742094</v>
+        <v>10.93319090222872</v>
       </c>
       <c r="G12">
-        <v>0.0007771570423317938</v>
+        <v>0.0008230782856094062</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7631665834254022</v>
+        <v>1.269519202467336</v>
       </c>
       <c r="L12">
-        <v>0.2254091838189396</v>
+        <v>0.2177613033475723</v>
       </c>
       <c r="M12">
-        <v>0.5722479093319919</v>
+        <v>0.3337059165900129</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.263992230049496</v>
+        <v>1.56550558997219</v>
       </c>
       <c r="C13">
-        <v>0.4427816745465805</v>
+        <v>0.1152320908164697</v>
       </c>
       <c r="D13">
-        <v>0.611038216040555</v>
+        <v>0.6819284269057846</v>
       </c>
       <c r="E13">
-        <v>0.04445685153031498</v>
+        <v>0.06462926876565334</v>
       </c>
       <c r="F13">
-        <v>10.8146825753671</v>
+        <v>10.87999614047055</v>
       </c>
       <c r="G13">
-        <v>0.0007778380737974332</v>
+        <v>0.0008236274748980626</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7582282163288951</v>
+        <v>1.261592372880898</v>
       </c>
       <c r="L13">
-        <v>0.2242808137374936</v>
+        <v>0.2167257909656541</v>
       </c>
       <c r="M13">
-        <v>0.5688337598021604</v>
+        <v>0.3318871592870067</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.197880043549333</v>
+        <v>1.536134710641562</v>
       </c>
       <c r="C14">
-        <v>0.4335797508214796</v>
+        <v>0.1132866070740377</v>
       </c>
       <c r="D14">
-        <v>0.6017381782463929</v>
+        <v>0.6727722260671953</v>
       </c>
       <c r="E14">
-        <v>0.04412321192040825</v>
+        <v>0.06397001795098944</v>
       </c>
       <c r="F14">
-        <v>10.62555748980378</v>
+        <v>10.70703459133938</v>
       </c>
       <c r="G14">
-        <v>0.0007800581993589666</v>
+        <v>0.0008254193537889369</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7422103502507085</v>
+        <v>1.235867995450008</v>
       </c>
       <c r="L14">
-        <v>0.2206189265347263</v>
+        <v>0.2133622028164979</v>
       </c>
       <c r="M14">
-        <v>0.5577575401735331</v>
+        <v>0.3259825160612309</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.157649983524323</v>
+        <v>1.518249268834865</v>
       </c>
       <c r="C15">
-        <v>0.4279834176492443</v>
+        <v>0.1121028339343511</v>
       </c>
       <c r="D15">
-        <v>0.5960721253879626</v>
+        <v>0.6671833283327828</v>
       </c>
       <c r="E15">
-        <v>0.04392035166209673</v>
+        <v>0.06356789001641161</v>
       </c>
       <c r="F15">
-        <v>10.51032904209967</v>
+        <v>10.60147981090654</v>
       </c>
       <c r="G15">
-        <v>0.0007814175473716015</v>
+        <v>0.0008265176514791831</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7324643051973538</v>
+        <v>1.220206422608641</v>
       </c>
       <c r="L15">
-        <v>0.2183894236070643</v>
+        <v>0.2113120447285581</v>
       </c>
       <c r="M15">
-        <v>0.5510166092103717</v>
+        <v>0.3223858852206973</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.930921482216945</v>
+        <v>1.417280932287184</v>
       </c>
       <c r="C16">
-        <v>0.3964824103753699</v>
+        <v>0.105431292169591</v>
       </c>
       <c r="D16">
-        <v>0.5640371311899628</v>
+        <v>0.6354347845742723</v>
       </c>
       <c r="E16">
-        <v>0.04277909188374451</v>
+        <v>0.06128791275812162</v>
       </c>
       <c r="F16">
-        <v>9.858823803293006</v>
+        <v>10.00219511052921</v>
       </c>
       <c r="G16">
-        <v>0.0007892039351077845</v>
+        <v>0.0008328251769502173</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6775500158726047</v>
+        <v>1.131836823678611</v>
       </c>
       <c r="L16">
-        <v>0.2058081744267781</v>
+        <v>0.199711099865425</v>
       </c>
       <c r="M16">
-        <v>0.5130137775960151</v>
+        <v>0.302067791854931</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.794971762446835</v>
+        <v>1.356614218110366</v>
       </c>
       <c r="C17">
-        <v>0.3776193025774148</v>
+        <v>0.1014295762451169</v>
       </c>
       <c r="D17">
-        <v>0.5447395267381978</v>
+        <v>0.6161861065746734</v>
       </c>
       <c r="E17">
-        <v>0.04209610390661744</v>
+        <v>0.0599096639499237</v>
       </c>
       <c r="F17">
-        <v>9.466383012600573</v>
+        <v>9.639185607783674</v>
       </c>
       <c r="G17">
-        <v>0.0007939824631144621</v>
+        <v>0.0008367094813633727</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6446306139196949</v>
+        <v>1.078773128180615</v>
       </c>
       <c r="L17">
-        <v>0.1982518871870695</v>
+        <v>0.1927181017865678</v>
       </c>
       <c r="M17">
-        <v>0.4902174434939539</v>
+        <v>0.2898481045191801</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.717833819929808</v>
+        <v>1.322155570759634</v>
       </c>
       <c r="C18">
-        <v>0.3669222875683147</v>
+        <v>0.09915796506748364</v>
       </c>
       <c r="D18">
-        <v>0.5337580735565552</v>
+        <v>0.6051906076150146</v>
       </c>
       <c r="E18">
-        <v>0.04170889099606345</v>
+        <v>0.05912392357787333</v>
       </c>
       <c r="F18">
-        <v>9.243083843430924</v>
+        <v>9.431954315331296</v>
       </c>
       <c r="G18">
-        <v>0.0007967334620370195</v>
+        <v>0.0008389500986786164</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6259539310072597</v>
+        <v>1.048642731592423</v>
       </c>
       <c r="L18">
-        <v>0.1939606492590826</v>
+        <v>0.1887384000448549</v>
       </c>
       <c r="M18">
-        <v>0.4772799963249028</v>
+        <v>0.2829034365820817</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.69188903659375</v>
+        <v>1.310560238976905</v>
       </c>
       <c r="C19">
-        <v>0.3633251390909038</v>
+        <v>0.09839369590146418</v>
       </c>
       <c r="D19">
-        <v>0.5300591055759583</v>
+        <v>0.6014800233111401</v>
       </c>
       <c r="E19">
-        <v>0.04157869343821918</v>
+        <v>0.05885903907350531</v>
       </c>
       <c r="F19">
-        <v>9.167873445117749</v>
+        <v>9.36204497777203</v>
       </c>
       <c r="G19">
-        <v>0.0007976655000645483</v>
+        <v>0.0008397099361592996</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6196723731524898</v>
+        <v>1.038505310572788</v>
       </c>
       <c r="L19">
-        <v>0.1925167375862173</v>
+        <v>0.1873979656897404</v>
       </c>
       <c r="M19">
-        <v>0.472928154996346</v>
+        <v>0.2805659197849906</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.809332373048619</v>
+        <v>1.363026530310492</v>
       </c>
       <c r="C20">
-        <v>0.3796111565595197</v>
+        <v>0.1018523800507936</v>
       </c>
       <c r="D20">
-        <v>0.5467813081525037</v>
+        <v>0.6182271393710721</v>
       </c>
       <c r="E20">
-        <v>0.04216821264741277</v>
+        <v>0.06005564590416768</v>
       </c>
       <c r="F20">
-        <v>9.507903182670987</v>
+        <v>9.677663857477569</v>
       </c>
       <c r="G20">
-        <v>0.0007934735600317837</v>
+        <v>0.0008362953430872846</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6481077366056383</v>
+        <v>1.084380755416163</v>
       </c>
       <c r="L20">
-        <v>0.1990504824700992</v>
+        <v>0.1934580556386294</v>
       </c>
       <c r="M20">
-        <v>0.4926257648478298</v>
+        <v>0.2911401061985401</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.21724281386247</v>
+        <v>1.544739544857805</v>
       </c>
       <c r="C21">
-        <v>0.4362741064551017</v>
+        <v>0.113856376450066</v>
       </c>
       <c r="D21">
-        <v>0.6044633903374006</v>
+        <v>0.6754575020998743</v>
       </c>
       <c r="E21">
-        <v>0.04422089212115665</v>
+        <v>0.06416330204907084</v>
       </c>
       <c r="F21">
-        <v>10.6809781683952</v>
+        <v>10.75775560845773</v>
       </c>
       <c r="G21">
-        <v>0.0007794062197766898</v>
+        <v>0.0008248928919353516</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.746901401892174</v>
+        <v>1.243403797829842</v>
       </c>
       <c r="L21">
-        <v>0.2216916667759108</v>
+        <v>0.2143480387579899</v>
       </c>
       <c r="M21">
-        <v>0.5610017114388697</v>
+        <v>0.3277126179922831</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.495451543783986</v>
+        <v>1.668111186436732</v>
       </c>
       <c r="C22">
-        <v>0.4750542992579767</v>
+        <v>0.122045520310607</v>
       </c>
       <c r="D22">
-        <v>0.6434922909060958</v>
+        <v>0.7137134456497449</v>
       </c>
       <c r="E22">
-        <v>0.04562786263498175</v>
+        <v>0.06692174943114892</v>
       </c>
       <c r="F22">
-        <v>11.47457051872476</v>
+        <v>11.48068965559986</v>
       </c>
       <c r="G22">
-        <v>0.0007701932120641412</v>
+        <v>0.0008174757606726054</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8143253282790184</v>
+        <v>1.351515246451413</v>
       </c>
       <c r="L22">
-        <v>0.2370809855109854</v>
+        <v>0.2284462451414413</v>
       </c>
       <c r="M22">
-        <v>0.6075961997718196</v>
+        <v>0.3524989235657827</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.345785008914618</v>
+        <v>1.601804784103649</v>
       </c>
       <c r="C23">
-        <v>0.4541756232157468</v>
+        <v>0.1176393328194152</v>
       </c>
       <c r="D23">
-        <v>0.6225251500545141</v>
+        <v>0.6932082363302356</v>
       </c>
       <c r="E23">
-        <v>0.04487011708299438</v>
+        <v>0.06544214956881689</v>
       </c>
       <c r="F23">
-        <v>11.04826584080212</v>
+        <v>11.09312435053528</v>
       </c>
       <c r="G23">
-        <v>0.0007751143499264723</v>
+        <v>0.0008214323991176498</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7780483101115934</v>
+        <v>1.29339455910241</v>
       </c>
       <c r="L23">
-        <v>0.2288077582453241</v>
+        <v>0.2208775025198975</v>
       </c>
       <c r="M23">
-        <v>0.5825343864960217</v>
+        <v>0.3391818681333874</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.802836782596501</v>
+        <v>1.360126225219403</v>
       </c>
       <c r="C24">
-        <v>0.3787101835415143</v>
+        <v>0.1016611408314461</v>
       </c>
       <c r="D24">
-        <v>0.5458578697198675</v>
+        <v>0.617304169721848</v>
       </c>
       <c r="E24">
-        <v>0.04213559548041967</v>
+        <v>0.05998962692413201</v>
       </c>
       <c r="F24">
-        <v>9.489124742375992</v>
+        <v>9.660263302205749</v>
       </c>
       <c r="G24">
-        <v>0.0007937036229026013</v>
+        <v>0.0008364825515065247</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6465349593182808</v>
+        <v>1.081844381445819</v>
       </c>
       <c r="L24">
-        <v>0.1986892736166936</v>
+        <v>0.1931233965453174</v>
       </c>
       <c r="M24">
-        <v>0.4915364416998358</v>
+        <v>0.2905557426670669</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.256728801502334</v>
+        <v>1.115763665141003</v>
       </c>
       <c r="C25">
-        <v>0.302995029145805</v>
+        <v>0.0855444335225215</v>
       </c>
       <c r="D25">
-        <v>0.4675621685036617</v>
+        <v>0.5382515867744928</v>
       </c>
       <c r="E25">
-        <v>0.03939532780029431</v>
+        <v>0.05437047583667365</v>
       </c>
       <c r="F25">
-        <v>7.897850037726641</v>
+        <v>8.173064633640053</v>
       </c>
       <c r="G25">
-        <v>0.0008138677191342708</v>
+        <v>0.0008529736905186637</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5143129525520536</v>
+        <v>0.8682828768618265</v>
       </c>
       <c r="L25">
-        <v>0.1682612858996251</v>
+        <v>0.1647813721619897</v>
       </c>
       <c r="M25">
-        <v>0.3999106266050774</v>
+        <v>0.2412483299616355</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9465764016671301</v>
+        <v>0.8839915855660365</v>
       </c>
       <c r="C2">
-        <v>0.07430575001447437</v>
+        <v>0.1375917092075269</v>
       </c>
       <c r="D2">
-        <v>0.4816652707650206</v>
+        <v>0.07066467380750296</v>
       </c>
       <c r="E2">
-        <v>0.05040575522018997</v>
+        <v>0.04695120504764283</v>
       </c>
       <c r="F2">
-        <v>7.114039547980951</v>
+        <v>0.9992917329875581</v>
       </c>
       <c r="G2">
-        <v>0.0008654407987632724</v>
+        <v>0.9496358481158325</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01663658441366023</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6725091867417348</v>
       </c>
       <c r="K2">
-        <v>0.7204734593254329</v>
+        <v>0.7610304653962601</v>
       </c>
       <c r="L2">
-        <v>0.1449802140182541</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2070247461445511</v>
+        <v>0.8583409836842293</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1644757743229874</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2001458175600987</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8372253379644121</v>
+        <v>0.7687665061138205</v>
       </c>
       <c r="C3">
-        <v>0.06694305829245906</v>
+        <v>0.1248617337802358</v>
       </c>
       <c r="D3">
-        <v>0.4439839194742063</v>
+        <v>0.06812241208033498</v>
       </c>
       <c r="E3">
-        <v>0.04780406648754365</v>
+        <v>0.04598427053345944</v>
       </c>
       <c r="F3">
-        <v>6.412762340497807</v>
+        <v>0.9510025196771537</v>
       </c>
       <c r="G3">
-        <v>0.0008741365606473953</v>
+        <v>0.9096900802277048</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02142829444310212</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6595870507217967</v>
       </c>
       <c r="K3">
-        <v>0.6248699621141469</v>
+        <v>0.7456650654602583</v>
       </c>
       <c r="L3">
-        <v>0.1320971762231267</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1848673435865216</v>
+        <v>0.7464096306861734</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1502438335939758</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1754090713979259</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7723032467699511</v>
+        <v>0.6980556870040289</v>
       </c>
       <c r="C4">
-        <v>0.06250842901069831</v>
+        <v>0.1171334331476785</v>
       </c>
       <c r="D4">
-        <v>0.4210775160564708</v>
+        <v>0.06655380790816423</v>
       </c>
       <c r="E4">
-        <v>0.04624217310302292</v>
+        <v>0.04540934925164031</v>
       </c>
       <c r="F4">
-        <v>5.988542959008868</v>
+        <v>0.9220313654398922</v>
       </c>
       <c r="G4">
-        <v>0.0008796102857063891</v>
+        <v>0.8857502343535941</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0248262666922674</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6520414250360602</v>
       </c>
       <c r="K4">
-        <v>0.5680449749327465</v>
+        <v>0.7365199101692141</v>
       </c>
       <c r="L4">
-        <v>0.1244142100542192</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1716983657517979</v>
+        <v>0.6779314966926506</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.141732333136396</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1603064353900194</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7463517131905064</v>
+        <v>0.6689845819712161</v>
       </c>
       <c r="C5">
-        <v>0.06071770032950141</v>
+        <v>0.1142116845031964</v>
       </c>
       <c r="D5">
-        <v>0.411787454137226</v>
+        <v>0.0659654902609077</v>
       </c>
       <c r="E5">
-        <v>0.04561375779982413</v>
+        <v>0.04514591110910615</v>
       </c>
       <c r="F5">
-        <v>5.81703785551278</v>
+        <v>0.9091878606725032</v>
       </c>
       <c r="G5">
-        <v>0.0008818764193109927</v>
+        <v>0.8748014957248955</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02642116600081268</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6483767224534489</v>
       </c>
       <c r="K5">
-        <v>0.5453094632100317</v>
+        <v>0.7318393423850083</v>
       </c>
       <c r="L5">
-        <v>0.1213354769440826</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1664313614813473</v>
+        <v>0.6503622246031426</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1383720312872754</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1541577844956166</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7420714883122059</v>
+        <v>0.6638423770187103</v>
       </c>
       <c r="C6">
-        <v>0.06042119893300679</v>
+        <v>0.1139845910208734</v>
       </c>
       <c r="D6">
-        <v>0.410247161942749</v>
+        <v>0.0659330553651003</v>
       </c>
       <c r="E6">
-        <v>0.04550987310425647</v>
+        <v>0.0450611944379915</v>
       </c>
       <c r="F6">
-        <v>5.788635702264372</v>
+        <v>0.9056012361785477</v>
       </c>
       <c r="G6">
-        <v>0.0008822549038673246</v>
+        <v>0.8713657801240089</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02682187410260273</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6469389940867813</v>
       </c>
       <c r="K6">
-        <v>0.5415582869755013</v>
+        <v>0.72981746603147</v>
       </c>
       <c r="L6">
-        <v>0.120827265825028</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1655625069055944</v>
+        <v>0.6461368034237154</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1378836869269051</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1531216315206692</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7719512790023373</v>
+        <v>0.6967991046820146</v>
       </c>
       <c r="C7">
-        <v>0.06248421870587606</v>
+        <v>0.117797837864984</v>
       </c>
       <c r="D7">
-        <v>0.4209520638381008</v>
+        <v>0.06672602099990499</v>
       </c>
       <c r="E7">
-        <v>0.04623366650475624</v>
+        <v>0.04529319989310387</v>
       </c>
       <c r="F7">
-        <v>5.986224738192476</v>
+        <v>0.917860036544802</v>
       </c>
       <c r="G7">
-        <v>0.0008796407015858598</v>
+        <v>0.8811610535765482</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02518116229324274</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6497138921410368</v>
       </c>
       <c r="K7">
-        <v>0.567736714437757</v>
+        <v>0.7330470984597923</v>
       </c>
       <c r="L7">
-        <v>0.1243724844063649</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1716269431294819</v>
+        <v>0.6785161995675679</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1418684680214284</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1601783618969286</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9083777443533165</v>
+        <v>0.8430846610116873</v>
       </c>
       <c r="C8">
-        <v>0.07174592121783618</v>
+        <v>0.1341259074457994</v>
       </c>
       <c r="D8">
-        <v>0.468616584199907</v>
+        <v>0.07003580741708504</v>
       </c>
       <c r="E8">
-        <v>0.04950076601395281</v>
+        <v>0.04646534446604988</v>
       </c>
       <c r="F8">
-        <v>6.870770794768362</v>
+        <v>0.9772073097010434</v>
       </c>
       <c r="G8">
-        <v>0.0008684122669430418</v>
+        <v>0.929864396185593</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01858576999116224</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6649694845042546</v>
       </c>
       <c r="K8">
-        <v>0.6870881438952381</v>
+        <v>0.7511731242003421</v>
       </c>
       <c r="L8">
-        <v>0.1404878219116341</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1992880666703485</v>
+        <v>0.8209612576347638</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1597607384100925</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1915345022403798</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.196207664645499</v>
+        <v>1.132243154732549</v>
       </c>
       <c r="C9">
-        <v>0.09085557406105949</v>
+        <v>0.1657337532096648</v>
       </c>
       <c r="D9">
-        <v>0.5645793172939051</v>
+        <v>0.07614299951716674</v>
       </c>
       <c r="E9">
-        <v>0.05623322486737692</v>
+        <v>0.04911978438568454</v>
       </c>
       <c r="F9">
-        <v>8.667565875365995</v>
+        <v>1.106653344269915</v>
       </c>
       <c r="G9">
-        <v>0.0008473745542679052</v>
+        <v>1.03846033133037</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008979054005607168</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7022354104631034</v>
       </c>
       <c r="K9">
-        <v>0.9385636033910316</v>
+        <v>0.7952894985643226</v>
       </c>
       <c r="L9">
-        <v>0.1741439509730398</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2574961865808305</v>
+        <v>1.101114271912138</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1964720929347408</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2539143093303409</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.424264741029532</v>
+        <v>1.345293716981587</v>
       </c>
       <c r="C10">
-        <v>0.1058922304663952</v>
+        <v>0.1901082212092859</v>
       </c>
       <c r="D10">
-        <v>0.6376420334309785</v>
+        <v>0.08072165842257562</v>
       </c>
       <c r="E10">
-        <v>0.06144616493169153</v>
+        <v>0.05111902354029674</v>
       </c>
       <c r="F10">
-        <v>10.04383864467783</v>
+        <v>1.204189685093795</v>
       </c>
       <c r="G10">
-        <v>0.000832382755473926</v>
+        <v>1.119941852864386</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004703134174651957</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.730835883388167</v>
       </c>
       <c r="K10">
-        <v>1.137946899356905</v>
+        <v>0.8278603404488152</v>
       </c>
       <c r="L10">
-        <v>0.2005150203064545</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3034739337474193</v>
+        <v>1.309841956642117</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.224947101078925</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3003951250060553</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.532708306709537</v>
+        <v>1.441075228164038</v>
       </c>
       <c r="C11">
-        <v>0.1130597728233695</v>
+        <v>0.2026533584230208</v>
       </c>
       <c r="D11">
-        <v>0.6717023160849465</v>
+        <v>0.08314495610235895</v>
       </c>
       <c r="E11">
-        <v>0.06389302013351283</v>
+        <v>0.05187163597230615</v>
       </c>
       <c r="F11">
-        <v>10.68682650840896</v>
+        <v>1.243197419626753</v>
       </c>
       <c r="G11">
-        <v>0.0008256293369159906</v>
+        <v>1.150821529606475</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003840002799980091</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7407776029432398</v>
       </c>
       <c r="K11">
-        <v>1.232867436748307</v>
+        <v>0.837665454745995</v>
       </c>
       <c r="L11">
-        <v>0.2129695551333839</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3252935494648028</v>
+        <v>1.407122039104593</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2385613296855382</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3216411507580332</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.574554474739244</v>
+        <v>1.478214496927421</v>
       </c>
       <c r="C12">
-        <v>0.1158318797354454</v>
+        <v>0.2067961890687116</v>
       </c>
       <c r="D12">
-        <v>0.6847440297472644</v>
+        <v>0.08388718507889337</v>
       </c>
       <c r="E12">
-        <v>0.06483210204259393</v>
+        <v>0.05225720846152981</v>
       </c>
       <c r="F12">
-        <v>10.93319090222872</v>
+        <v>1.26161524785087</v>
       </c>
       <c r="G12">
-        <v>0.0008230782856094062</v>
+        <v>1.166515372184207</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003376204684710338</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7465807411205532</v>
       </c>
       <c r="K12">
-        <v>1.269519202467336</v>
+        <v>0.8443739787989131</v>
       </c>
       <c r="L12">
-        <v>0.2177613033475723</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3337059165900129</v>
+        <v>1.443237780954348</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2436132497677193</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3297648433075508</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.56550558997219</v>
+        <v>1.470374911832693</v>
       </c>
       <c r="C13">
-        <v>0.1152320908164697</v>
+        <v>0.2057710383875104</v>
       </c>
       <c r="D13">
-        <v>0.6819284269057846</v>
+        <v>0.08369129680877307</v>
       </c>
       <c r="E13">
-        <v>0.06462926876565334</v>
+        <v>0.05219344106774315</v>
       </c>
       <c r="F13">
-        <v>10.87999614047055</v>
+        <v>1.25833652025392</v>
       </c>
       <c r="G13">
-        <v>0.0008236274748980626</v>
+        <v>1.163898734142848</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003422269593629679</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7457175817127819</v>
       </c>
       <c r="K13">
-        <v>1.261592372880898</v>
+        <v>0.8435118840010603</v>
       </c>
       <c r="L13">
-        <v>0.2167257909656541</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3318871592870067</v>
+        <v>1.435283456104258</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2424904524604017</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3280234160914617</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.536134710641562</v>
+        <v>1.444198063070644</v>
       </c>
       <c r="C14">
-        <v>0.1132866070740377</v>
+        <v>0.2029377106189969</v>
       </c>
       <c r="D14">
-        <v>0.6727722260671953</v>
+        <v>0.08319073684532441</v>
       </c>
       <c r="E14">
-        <v>0.06397001795098944</v>
+        <v>0.05191153946001847</v>
       </c>
       <c r="F14">
-        <v>10.70703459133938</v>
+        <v>1.24500462362009</v>
       </c>
       <c r="G14">
-        <v>0.0008254193537889369</v>
+        <v>1.15243669088629</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003778470852408233</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7414191943614554</v>
       </c>
       <c r="K14">
-        <v>1.235867995450008</v>
+        <v>0.8384647980168154</v>
       </c>
       <c r="L14">
-        <v>0.2133622028164979</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3259825160612309</v>
+        <v>1.410018345483365</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2389621216541116</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3223129041274575</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.518249268834865</v>
+        <v>1.427854900248178</v>
       </c>
       <c r="C15">
-        <v>0.1121028339343511</v>
+        <v>0.2014655804291579</v>
       </c>
       <c r="D15">
-        <v>0.6671833283327828</v>
+        <v>0.08295495070443337</v>
       </c>
       <c r="E15">
-        <v>0.06356789001641161</v>
+        <v>0.05170109656752508</v>
       </c>
       <c r="F15">
-        <v>10.60147981090654</v>
+        <v>1.235492728025875</v>
       </c>
       <c r="G15">
-        <v>0.0008265176514791831</v>
+        <v>1.143920965002437</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004111979492519069</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7380290159996719</v>
       </c>
       <c r="K15">
-        <v>1.220206422608641</v>
+        <v>0.8342298936182146</v>
       </c>
       <c r="L15">
-        <v>0.2113120447285581</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3223858852206973</v>
+        <v>1.394894909497566</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2368717923621091</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3188005112507781</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.417280932287184</v>
+        <v>1.336373173678538</v>
       </c>
       <c r="C16">
-        <v>0.105431292169591</v>
+        <v>0.1914535239904041</v>
       </c>
       <c r="D16">
-        <v>0.6354347845742723</v>
+        <v>0.0811520067637872</v>
       </c>
       <c r="E16">
-        <v>0.06128791275812162</v>
+        <v>0.05074731150500078</v>
       </c>
       <c r="F16">
-        <v>10.00219511052921</v>
+        <v>1.190104957771936</v>
       </c>
       <c r="G16">
-        <v>0.0008328251769502173</v>
+        <v>1.105141487818031</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005593585313856231</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.723698844175118</v>
       </c>
       <c r="K16">
-        <v>1.131836823678611</v>
+        <v>0.8174825860609403</v>
       </c>
       <c r="L16">
-        <v>0.199711099865425</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.302067791854931</v>
+        <v>1.306324963003334</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2245986869234997</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.29885503239408</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.356614218110366</v>
+        <v>1.280374057776555</v>
       </c>
       <c r="C17">
-        <v>0.1014295762451169</v>
+        <v>0.1853645278068115</v>
       </c>
       <c r="D17">
-        <v>0.6161861065746734</v>
+        <v>0.08004389376075949</v>
       </c>
       <c r="E17">
-        <v>0.0599096639499237</v>
+        <v>0.05017015667872649</v>
       </c>
       <c r="F17">
-        <v>9.639185607783674</v>
+        <v>1.162619980805857</v>
       </c>
       <c r="G17">
-        <v>0.0008367094813633727</v>
+        <v>1.081683010811034</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.006680627903787872</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7150907797067134</v>
       </c>
       <c r="K17">
-        <v>1.078773128180615</v>
+        <v>0.8073776390998759</v>
       </c>
       <c r="L17">
-        <v>0.1927181017865678</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2898481045191801</v>
+        <v>1.252178312811623</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2171624875117146</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2866721115286381</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.322155570759634</v>
+        <v>1.249007917139124</v>
       </c>
       <c r="C18">
-        <v>0.09915796506748364</v>
+        <v>0.1812239273250356</v>
       </c>
       <c r="D18">
-        <v>0.6051906076150146</v>
+        <v>0.07922762825961627</v>
       </c>
       <c r="E18">
-        <v>0.05912392357787333</v>
+        <v>0.0499386570895215</v>
       </c>
       <c r="F18">
-        <v>9.431954315331296</v>
+        <v>1.150428311385951</v>
       </c>
       <c r="G18">
-        <v>0.0008389500986786164</v>
+        <v>1.07217160480694</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.007078333558268923</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7121688391887062</v>
       </c>
       <c r="K18">
-        <v>1.048642731592423</v>
+        <v>0.8045665303434717</v>
       </c>
       <c r="L18">
-        <v>0.1887384000448549</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2829034365820817</v>
+        <v>1.220242430883133</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2127564299674418</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2797293396514036</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.310560238976905</v>
+        <v>1.237775155199188</v>
       </c>
       <c r="C19">
-        <v>0.09839369590146418</v>
+        <v>0.180330818283494</v>
       </c>
       <c r="D19">
-        <v>0.6014800233111401</v>
+        <v>0.07908838815323804</v>
       </c>
       <c r="E19">
-        <v>0.05885903907350531</v>
+        <v>0.04978544252074713</v>
       </c>
       <c r="F19">
-        <v>9.36204497777203</v>
+        <v>1.143627987658675</v>
       </c>
       <c r="G19">
-        <v>0.0008397099361592996</v>
+        <v>1.065988250403379</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.007444378251187267</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7096747788427962</v>
       </c>
       <c r="K19">
-        <v>1.038505310572788</v>
+        <v>0.8013549183477053</v>
       </c>
       <c r="L19">
-        <v>0.1873979656897404</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2805659197849906</v>
+        <v>1.210099913107598</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2113948001162953</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2773459157639167</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.363026530310492</v>
+        <v>1.286394109397435</v>
       </c>
       <c r="C20">
-        <v>0.1018523800507936</v>
+        <v>0.1859591776643867</v>
       </c>
       <c r="D20">
-        <v>0.6182271393710721</v>
+        <v>0.08014789492941077</v>
       </c>
       <c r="E20">
-        <v>0.06005564590416768</v>
+        <v>0.05023895653959265</v>
       </c>
       <c r="F20">
-        <v>9.677663857477569</v>
+        <v>1.165806535989176</v>
       </c>
       <c r="G20">
-        <v>0.0008362953430872846</v>
+        <v>1.084471260767629</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006535394701131736</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7161544072345691</v>
       </c>
       <c r="K20">
-        <v>1.084380755416163</v>
+        <v>0.8086777578876507</v>
       </c>
       <c r="L20">
-        <v>0.1934580556386294</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2911401061985401</v>
+        <v>1.257868409939249</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2179379694711372</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2879707471888864</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.544739544857805</v>
+        <v>1.450975751572628</v>
       </c>
       <c r="C21">
-        <v>0.113856376450066</v>
+        <v>0.2045055764265982</v>
       </c>
       <c r="D21">
-        <v>0.6754575020998743</v>
+        <v>0.08353990524895494</v>
       </c>
       <c r="E21">
-        <v>0.06416330204907084</v>
+        <v>0.05188525517674236</v>
       </c>
       <c r="F21">
-        <v>10.75775560845773</v>
+        <v>1.245013198702111</v>
       </c>
       <c r="G21">
-        <v>0.0008248928919353516</v>
+        <v>1.151479451607983</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00396036081812845</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7404888493720279</v>
       </c>
       <c r="K21">
-        <v>1.243403797829842</v>
+        <v>0.8366615586661652</v>
       </c>
       <c r="L21">
-        <v>0.2143480387579899</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3277126179922831</v>
+        <v>1.418391820591779</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.240177554499283</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3239355420348957</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.668111186436732</v>
+        <v>1.560147633859827</v>
       </c>
       <c r="C22">
-        <v>0.122045520310607</v>
+        <v>0.2158843298949762</v>
       </c>
       <c r="D22">
-        <v>0.7137134456497449</v>
+        <v>0.08549415586132625</v>
       </c>
       <c r="E22">
-        <v>0.06692174943114892</v>
+        <v>0.05312662635163434</v>
       </c>
       <c r="F22">
-        <v>11.48068965559986</v>
+        <v>1.30298458693845</v>
       </c>
       <c r="G22">
-        <v>0.0008174757606726054</v>
+        <v>1.201914064118085</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00251402487929564</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.759804715721927</v>
       </c>
       <c r="K22">
-        <v>1.351515246451413</v>
+        <v>0.8597043631269088</v>
       </c>
       <c r="L22">
-        <v>0.2284462451414413</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3524989235657827</v>
+        <v>1.522775769250018</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.254805538609105</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3476981011029636</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.601804784103649</v>
+        <v>1.502932767630938</v>
       </c>
       <c r="C23">
-        <v>0.1176393328194152</v>
+        <v>0.2089050267907027</v>
       </c>
       <c r="D23">
-        <v>0.6932082363302356</v>
+        <v>0.08420789763638936</v>
       </c>
       <c r="E23">
-        <v>0.06544214956881689</v>
+        <v>0.0525929761315691</v>
       </c>
       <c r="F23">
-        <v>11.09312435053528</v>
+        <v>1.276630893508781</v>
       </c>
       <c r="G23">
-        <v>0.0008214323991176498</v>
+        <v>1.180095742749486</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002898583211787376</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7520768186337961</v>
       </c>
       <c r="K23">
-        <v>1.29339455910241</v>
+        <v>0.8513120948621449</v>
       </c>
       <c r="L23">
-        <v>0.2208775025198975</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3391818681333874</v>
+        <v>1.465843435624407</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2467495643825686</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3350621699956235</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.360126225219403</v>
+        <v>1.285375649846856</v>
       </c>
       <c r="C24">
-        <v>0.1016611408314461</v>
+        <v>0.1843044286797806</v>
       </c>
       <c r="D24">
-        <v>0.617304169721848</v>
+        <v>0.07972431556159165</v>
       </c>
       <c r="E24">
-        <v>0.05998962692413201</v>
+        <v>0.05041467341309058</v>
       </c>
       <c r="F24">
-        <v>9.660263302205749</v>
+        <v>1.171764006205336</v>
       </c>
       <c r="G24">
-        <v>0.0008364825515065247</v>
+        <v>1.091403740325518</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.006028880390990032</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.719835517479126</v>
       </c>
       <c r="K24">
-        <v>1.081844381445819</v>
+        <v>0.8143265720649211</v>
       </c>
       <c r="L24">
-        <v>0.1931233965453174</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2905557426670669</v>
+        <v>1.253485328902485</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.217245203883536</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2874822487234852</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.115763665141003</v>
+        <v>1.052253883230804</v>
       </c>
       <c r="C25">
-        <v>0.0855444335225215</v>
+        <v>0.1583835717978701</v>
       </c>
       <c r="D25">
-        <v>0.5382515867744928</v>
+        <v>0.07484601671177415</v>
       </c>
       <c r="E25">
-        <v>0.05437047583667365</v>
+        <v>0.04818225967263245</v>
       </c>
       <c r="F25">
-        <v>8.173064633640053</v>
+        <v>1.063714639182152</v>
       </c>
       <c r="G25">
-        <v>0.0008529736905186637</v>
+        <v>1.00046448644845</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01166262432394749</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6876982539528456</v>
       </c>
       <c r="K25">
-        <v>0.8682828768618265</v>
+        <v>0.7769552893006733</v>
       </c>
       <c r="L25">
-        <v>0.1647813721619897</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2412483299616355</v>
+        <v>1.026718040387181</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1866407201022113</v>
       </c>
       <c r="O25">
+        <v>0.2368431077580375</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8839915855660365</v>
+        <v>0.8643962468225652</v>
       </c>
       <c r="C2">
-        <v>0.1375917092075269</v>
+        <v>0.1460503540952089</v>
       </c>
       <c r="D2">
-        <v>0.07066467380750296</v>
+        <v>0.07261828466457132</v>
       </c>
       <c r="E2">
-        <v>0.04695120504764283</v>
+        <v>0.04126065669329293</v>
       </c>
       <c r="F2">
-        <v>0.9992917329875581</v>
+        <v>0.8485327526579738</v>
       </c>
       <c r="G2">
-        <v>0.9496358481158325</v>
+        <v>0.7721323344283633</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01663658441366023</v>
+        <v>0.01160651338910856</v>
       </c>
       <c r="J2">
-        <v>0.6725091867417348</v>
+        <v>0.5915849586121453</v>
       </c>
       <c r="K2">
-        <v>0.7610304653962601</v>
+        <v>0.6167695886102464</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2573271796457064</v>
       </c>
       <c r="M2">
-        <v>0.8583409836842293</v>
+        <v>0.2063656669694289</v>
       </c>
       <c r="N2">
-        <v>0.1644757743229874</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2001458175600987</v>
+        <v>0.8972440562582165</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1729956898675695</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1986843334849695</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7687665061138205</v>
+        <v>0.7532230660563926</v>
       </c>
       <c r="C3">
-        <v>0.1248617337802358</v>
+        <v>0.1287523890168529</v>
       </c>
       <c r="D3">
-        <v>0.06812241208033498</v>
+        <v>0.06839721296188372</v>
       </c>
       <c r="E3">
-        <v>0.04598427053345944</v>
+        <v>0.04071494817737786</v>
       </c>
       <c r="F3">
-        <v>0.9510025196771537</v>
+        <v>0.8156226624944978</v>
       </c>
       <c r="G3">
-        <v>0.9096900802277048</v>
+        <v>0.752083326852798</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02142829444310212</v>
+        <v>0.01502291893176855</v>
       </c>
       <c r="J3">
-        <v>0.6595870507217967</v>
+        <v>0.5810874127789134</v>
       </c>
       <c r="K3">
-        <v>0.7456650654602583</v>
+        <v>0.6127091312177129</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2601078948225357</v>
       </c>
       <c r="M3">
-        <v>0.7464096306861734</v>
+        <v>0.2020826656886108</v>
       </c>
       <c r="N3">
-        <v>0.1502438335939758</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1754090713979259</v>
+        <v>0.7799312463638444</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1579751730684293</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1739498515809181</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6980556870040289</v>
+        <v>0.6848383274122227</v>
       </c>
       <c r="C4">
-        <v>0.1171334331476785</v>
+        <v>0.1183124882780078</v>
       </c>
       <c r="D4">
-        <v>0.06655380790816423</v>
+        <v>0.06582159942049515</v>
       </c>
       <c r="E4">
-        <v>0.04540934925164031</v>
+        <v>0.04039439064600536</v>
       </c>
       <c r="F4">
-        <v>0.9220313654398922</v>
+        <v>0.7958545424598</v>
       </c>
       <c r="G4">
-        <v>0.8857502343535941</v>
+        <v>0.7403478066615037</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0248262666922674</v>
+        <v>0.0174719073820282</v>
       </c>
       <c r="J4">
-        <v>0.6520414250360602</v>
+        <v>0.5746588922378493</v>
       </c>
       <c r="K4">
-        <v>0.7365199101692141</v>
+        <v>0.6103539886267129</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2617010746516328</v>
       </c>
       <c r="M4">
-        <v>0.6779314966926506</v>
+        <v>0.2002050103327413</v>
       </c>
       <c r="N4">
-        <v>0.141732333136396</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1603064353900194</v>
+        <v>0.7081103663152248</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1489924186240827</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1588174839350103</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6689845819712161</v>
+        <v>0.6566966732954143</v>
       </c>
       <c r="C5">
-        <v>0.1142116845031964</v>
+        <v>0.1143389180836607</v>
       </c>
       <c r="D5">
-        <v>0.0659654902609077</v>
+        <v>0.06483863237065535</v>
       </c>
       <c r="E5">
-        <v>0.04514591110910615</v>
+        <v>0.04023912814980157</v>
       </c>
       <c r="F5">
-        <v>0.9091878606725032</v>
+        <v>0.7868845175590735</v>
       </c>
       <c r="G5">
-        <v>0.8748014957248955</v>
+        <v>0.7346036883048015</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02642116600081268</v>
+        <v>0.01866333729675596</v>
       </c>
       <c r="J5">
-        <v>0.6483767224534489</v>
+        <v>0.5714541797626111</v>
       </c>
       <c r="K5">
-        <v>0.7318393423850083</v>
+        <v>0.6086033282401999</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2619510373561873</v>
       </c>
       <c r="M5">
-        <v>0.6503622246031426</v>
+        <v>0.1993813799770621</v>
       </c>
       <c r="N5">
-        <v>0.1383720312872754</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1541577844956166</v>
+        <v>0.6791543606006911</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1454400491340664</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1526501957502582</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6638423770187103</v>
+        <v>0.6517308306941061</v>
       </c>
       <c r="C6">
-        <v>0.1139845910208734</v>
+        <v>0.1139756941767445</v>
       </c>
       <c r="D6">
-        <v>0.0659330553651003</v>
+        <v>0.06475314757463124</v>
       </c>
       <c r="E6">
-        <v>0.0450611944379915</v>
+        <v>0.04017910982317474</v>
       </c>
       <c r="F6">
-        <v>0.9056012361785477</v>
+        <v>0.7841592256363299</v>
       </c>
       <c r="G6">
-        <v>0.8713657801240089</v>
+        <v>0.7323189199312594</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02682187410260273</v>
+        <v>0.01900740350396735</v>
       </c>
       <c r="J6">
-        <v>0.6469389940867813</v>
+        <v>0.5702039851141905</v>
       </c>
       <c r="K6">
-        <v>0.72981746603147</v>
+        <v>0.6073102570489937</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2615396527093417</v>
       </c>
       <c r="M6">
-        <v>0.6461368034237154</v>
+        <v>0.19895547386648</v>
       </c>
       <c r="N6">
-        <v>0.1378836869269051</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1531216315206692</v>
+        <v>0.6746776228062856</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1449158550466265</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1516114712937231</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6967991046820146</v>
+        <v>0.6838652539769896</v>
       </c>
       <c r="C7">
-        <v>0.117797837864984</v>
+        <v>0.11880734230553</v>
       </c>
       <c r="D7">
-        <v>0.06672602099990499</v>
+        <v>0.06615485930838005</v>
       </c>
       <c r="E7">
-        <v>0.04529319989310387</v>
+        <v>0.04031885259147572</v>
       </c>
       <c r="F7">
-        <v>0.917860036544802</v>
+        <v>0.7903378121538367</v>
       </c>
       <c r="G7">
-        <v>0.8811610535765482</v>
+        <v>0.7391741216754468</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02518116229324274</v>
+        <v>0.01786725783899978</v>
       </c>
       <c r="J7">
-        <v>0.6497138921410368</v>
+        <v>0.5665401352100048</v>
       </c>
       <c r="K7">
-        <v>0.7330470984597923</v>
+        <v>0.6063408419150988</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.259945869543639</v>
       </c>
       <c r="M7">
-        <v>0.6785161995675679</v>
+        <v>0.1989658883350351</v>
       </c>
       <c r="N7">
-        <v>0.1418684680214284</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1601783618969286</v>
+        <v>0.708307597367579</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1490646096483559</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1587047403730679</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8430846610116873</v>
+        <v>0.8256925608488643</v>
       </c>
       <c r="C8">
-        <v>0.1341259074457994</v>
+        <v>0.1402618054824956</v>
       </c>
       <c r="D8">
-        <v>0.07003580741708504</v>
+        <v>0.0719133971050141</v>
       </c>
       <c r="E8">
-        <v>0.04646534446604988</v>
+        <v>0.04101570776341923</v>
       </c>
       <c r="F8">
-        <v>0.9772073097010434</v>
+        <v>0.8260236858795906</v>
       </c>
       <c r="G8">
-        <v>0.929864396185593</v>
+        <v>0.7688651164587981</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01858576999116224</v>
+        <v>0.01318413971518151</v>
       </c>
       <c r="J8">
-        <v>0.6649694845042546</v>
+        <v>0.5654435606166004</v>
       </c>
       <c r="K8">
-        <v>0.7511731242003421</v>
+        <v>0.6076822203725598</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2551364117906054</v>
       </c>
       <c r="M8">
-        <v>0.8209612576347638</v>
+        <v>0.2021700753893043</v>
       </c>
       <c r="N8">
-        <v>0.1597607384100925</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1915345022403798</v>
+        <v>0.8568910748876988</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1678226905647549</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1901249682648327</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.132243154732549</v>
+        <v>1.103834027205011</v>
       </c>
       <c r="C9">
-        <v>0.1657337532096648</v>
+        <v>0.1834216229444223</v>
       </c>
       <c r="D9">
-        <v>0.07614299951716674</v>
+        <v>0.08246804504001659</v>
       </c>
       <c r="E9">
-        <v>0.04911978438568454</v>
+        <v>0.0425928594398588</v>
       </c>
       <c r="F9">
-        <v>1.106653344269915</v>
+        <v>0.9131715299241137</v>
       </c>
       <c r="G9">
-        <v>1.03846033133037</v>
+        <v>0.8292682309773625</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.008979054005607168</v>
+        <v>0.006334198720705508</v>
       </c>
       <c r="J9">
-        <v>0.7022354104631034</v>
+        <v>0.5886835822336849</v>
       </c>
       <c r="K9">
-        <v>0.7952894985643226</v>
+        <v>0.6208868084124504</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2487806564346506</v>
       </c>
       <c r="M9">
-        <v>1.101114271912138</v>
+        <v>0.21755401920068</v>
       </c>
       <c r="N9">
-        <v>0.1964720929347408</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2539143093303409</v>
+        <v>1.149906301256777</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.206529383101568</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2523045651855007</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.345293716981587</v>
+        <v>1.308995285443814</v>
       </c>
       <c r="C10">
-        <v>0.1901082212092859</v>
+        <v>0.2152374755999631</v>
       </c>
       <c r="D10">
-        <v>0.08072165842257562</v>
+        <v>0.09136599427748848</v>
       </c>
       <c r="E10">
-        <v>0.05111902354029674</v>
+        <v>0.04391396118750102</v>
       </c>
       <c r="F10">
-        <v>1.204189685093795</v>
+        <v>0.9670829296879191</v>
       </c>
       <c r="G10">
-        <v>1.119941852864386</v>
+        <v>0.891180403170523</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004703134174651957</v>
+        <v>0.003511499710889154</v>
       </c>
       <c r="J10">
-        <v>0.730835883388167</v>
+        <v>0.5717078408008547</v>
       </c>
       <c r="K10">
-        <v>0.8278603404488152</v>
+        <v>0.6233582282857597</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2407142414627401</v>
       </c>
       <c r="M10">
-        <v>1.309841956642117</v>
+        <v>0.229454038281137</v>
       </c>
       <c r="N10">
-        <v>0.224947101078925</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3003951250060553</v>
+        <v>1.365728773050108</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2362031883483269</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2984959379045762</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.441075228164038</v>
+        <v>1.403198039833711</v>
       </c>
       <c r="C11">
-        <v>0.2026533584230208</v>
+        <v>0.2286180132562379</v>
       </c>
       <c r="D11">
-        <v>0.08314495610235895</v>
+        <v>0.0975393537768241</v>
       </c>
       <c r="E11">
-        <v>0.05187163597230615</v>
+        <v>0.04461943101678045</v>
       </c>
       <c r="F11">
-        <v>1.243197419626753</v>
+        <v>0.9671054150383185</v>
       </c>
       <c r="G11">
-        <v>1.150821529606475</v>
+        <v>0.9427208861876579</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003840002799980091</v>
+        <v>0.00325747441288371</v>
       </c>
       <c r="J11">
-        <v>0.7407776029432398</v>
+        <v>0.5080905068904684</v>
       </c>
       <c r="K11">
-        <v>0.837665454745995</v>
+        <v>0.6087135214881556</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2315347785746731</v>
       </c>
       <c r="M11">
-        <v>1.407122039104593</v>
+        <v>0.2291185050053741</v>
       </c>
       <c r="N11">
-        <v>0.2385613296855382</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3216411507580332</v>
+        <v>1.462577948485006</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2497957813930753</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3196676366372415</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.478214496927421</v>
+        <v>1.439908600582896</v>
       </c>
       <c r="C12">
-        <v>0.2067961890687116</v>
+        <v>0.2326217053094837</v>
       </c>
       <c r="D12">
-        <v>0.08388718507889337</v>
+        <v>0.09990368731155286</v>
       </c>
       <c r="E12">
-        <v>0.05225720846152981</v>
+        <v>0.04500173411747532</v>
       </c>
       <c r="F12">
-        <v>1.26161524785087</v>
+        <v>0.9675501178893882</v>
       </c>
       <c r="G12">
-        <v>1.166515372184207</v>
+        <v>0.9695563976962376</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.003376204684710338</v>
+        <v>0.002958730796865261</v>
       </c>
       <c r="J12">
-        <v>0.7465807411205532</v>
+        <v>0.48095280267448</v>
       </c>
       <c r="K12">
-        <v>0.8443739787989131</v>
+        <v>0.6039493707262693</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2283883939808646</v>
       </c>
       <c r="M12">
-        <v>1.443237780954348</v>
+        <v>0.2293309514820265</v>
       </c>
       <c r="N12">
-        <v>0.2436132497677193</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.3297648433075508</v>
+        <v>1.498103497577034</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2547759093485524</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3277633774231603</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.470374911832693</v>
+        <v>1.432135166519572</v>
       </c>
       <c r="C13">
-        <v>0.2057710383875104</v>
+        <v>0.2316216008286744</v>
       </c>
       <c r="D13">
-        <v>0.08369129680877307</v>
+        <v>0.09933600724607317</v>
       </c>
       <c r="E13">
-        <v>0.05219344106774315</v>
+        <v>0.04493364432130065</v>
       </c>
       <c r="F13">
-        <v>1.25833652025392</v>
+        <v>0.9681133654387963</v>
       </c>
       <c r="G13">
-        <v>1.163898734142848</v>
+        <v>0.9642203697210761</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.003422269593629679</v>
+        <v>0.002961930862507955</v>
       </c>
       <c r="J13">
-        <v>0.7457175817127819</v>
+        <v>0.4872045089281301</v>
       </c>
       <c r="K13">
-        <v>0.8435118840010603</v>
+        <v>0.6054651249847041</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2292314004350366</v>
       </c>
       <c r="M13">
-        <v>1.435283456104258</v>
+        <v>0.2294837820451647</v>
       </c>
       <c r="N13">
-        <v>0.2424904524604017</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3280234160914617</v>
+        <v>1.490306459456207</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.253673926815992</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3260269809689404</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.444198063070644</v>
+        <v>1.406274265753979</v>
       </c>
       <c r="C14">
-        <v>0.2029377106189969</v>
+        <v>0.2288890160039188</v>
       </c>
       <c r="D14">
-        <v>0.08319073684532441</v>
+        <v>0.09770901633884677</v>
       </c>
       <c r="E14">
-        <v>0.05191153946001847</v>
+        <v>0.0446568891218444</v>
       </c>
       <c r="F14">
-        <v>1.24500462362009</v>
+        <v>0.9674258864936007</v>
       </c>
       <c r="G14">
-        <v>1.15243669088629</v>
+        <v>0.9451112942462885</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.003778470852408233</v>
+        <v>0.003206411763741812</v>
       </c>
       <c r="J14">
-        <v>0.7414191943614554</v>
+        <v>0.5060436129368071</v>
       </c>
       <c r="K14">
-        <v>0.8384647980168154</v>
+        <v>0.6085325833183575</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2313476272202095</v>
       </c>
       <c r="M14">
-        <v>1.410018345483365</v>
+        <v>0.2292210200834077</v>
       </c>
       <c r="N14">
-        <v>0.2389621216541116</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3223129041274575</v>
+        <v>1.465439014955138</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2501930125927743</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3203366709333224</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.427854900248178</v>
+        <v>1.390186186727675</v>
       </c>
       <c r="C15">
-        <v>0.2014655804291579</v>
+        <v>0.2274752757182483</v>
       </c>
       <c r="D15">
-        <v>0.08295495070443337</v>
+        <v>0.09683613129733004</v>
       </c>
       <c r="E15">
-        <v>0.05170109656752508</v>
+        <v>0.04446095444393272</v>
       </c>
       <c r="F15">
-        <v>1.235492728025875</v>
+        <v>0.965595018773115</v>
       </c>
       <c r="G15">
-        <v>1.143920965002437</v>
+        <v>0.9327267358489451</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.004111979492519069</v>
+        <v>0.003485284483722317</v>
       </c>
       <c r="J15">
-        <v>0.7380290159996719</v>
+        <v>0.5165414337704135</v>
       </c>
       <c r="K15">
-        <v>0.8342298936182146</v>
+        <v>0.6093753861933706</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2322913898635441</v>
       </c>
       <c r="M15">
-        <v>1.394894909497566</v>
+        <v>0.2286456408967297</v>
       </c>
       <c r="N15">
-        <v>0.2368717923621091</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3188005112507781</v>
+        <v>1.450479805943019</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2481181151029404</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3168387233662244</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.336373173678538</v>
+        <v>1.300452575954665</v>
       </c>
       <c r="C16">
-        <v>0.1914535239904041</v>
+        <v>0.216852537064284</v>
       </c>
       <c r="D16">
-        <v>0.0811520067637872</v>
+        <v>0.09172881286072965</v>
       </c>
       <c r="E16">
-        <v>0.05074731150500078</v>
+        <v>0.04360912279630647</v>
       </c>
       <c r="F16">
-        <v>1.190104957771936</v>
+        <v>0.9573622083104851</v>
       </c>
       <c r="G16">
-        <v>1.105141487818031</v>
+        <v>0.8779637259350466</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.005593585313856231</v>
+        <v>0.004491358747022112</v>
       </c>
       <c r="J16">
-        <v>0.723698844175118</v>
+        <v>0.5702278738975224</v>
       </c>
       <c r="K16">
-        <v>0.8174825860609403</v>
+        <v>0.6167846364868907</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2386514010578864</v>
       </c>
       <c r="M16">
-        <v>1.306324963003334</v>
+        <v>0.2264991333388302</v>
       </c>
       <c r="N16">
-        <v>0.2245986869234997</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.29885503239408</v>
+        <v>1.362033163184094</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2358143919103384</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2969737851751404</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.280374057776555</v>
+        <v>1.245924228422382</v>
       </c>
       <c r="C17">
-        <v>0.1853645278068115</v>
+        <v>0.2097920245265641</v>
       </c>
       <c r="D17">
-        <v>0.08004389376075949</v>
+        <v>0.08898235866792703</v>
       </c>
       <c r="E17">
-        <v>0.05017015667872649</v>
+        <v>0.04314586819079658</v>
       </c>
       <c r="F17">
-        <v>1.162619980805857</v>
+        <v>0.9482321581017459</v>
       </c>
       <c r="G17">
-        <v>1.081683010811034</v>
+        <v>0.8511158912353238</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.006680627903787872</v>
+        <v>0.005245877221861761</v>
       </c>
       <c r="J17">
-        <v>0.7150907797067134</v>
+        <v>0.5929871424807232</v>
       </c>
       <c r="K17">
-        <v>0.8073776390998759</v>
+        <v>0.6188712991687595</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.241721301555927</v>
       </c>
       <c r="M17">
-        <v>1.252178312811623</v>
+        <v>0.2243163597580349</v>
       </c>
       <c r="N17">
-        <v>0.2171624875117146</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2866721115286381</v>
+        <v>1.307168205157154</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2282378450462943</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2848472969780431</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.249007917139124</v>
+        <v>1.215469717010905</v>
       </c>
       <c r="C18">
-        <v>0.1812239273250356</v>
+        <v>0.2047655360927223</v>
       </c>
       <c r="D18">
-        <v>0.07922762825961627</v>
+        <v>0.08731491884302756</v>
       </c>
       <c r="E18">
-        <v>0.0499386570895215</v>
+        <v>0.04297892483177357</v>
       </c>
       <c r="F18">
-        <v>1.150428311385951</v>
+        <v>0.9444003881147012</v>
       </c>
       <c r="G18">
-        <v>1.07217160480694</v>
+        <v>0.8410407929538906</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.007078333558268923</v>
+        <v>0.005392943412100948</v>
       </c>
       <c r="J18">
-        <v>0.7121688391887062</v>
+        <v>0.603505748817966</v>
       </c>
       <c r="K18">
-        <v>0.8045665303434717</v>
+        <v>0.6214380881074675</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.24398983431308</v>
       </c>
       <c r="M18">
-        <v>1.220242430883133</v>
+        <v>0.2236371393082273</v>
       </c>
       <c r="N18">
-        <v>0.2127564299674418</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2797293396514036</v>
+        <v>1.274585342585283</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2237186819199763</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2779360754673021</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.237775155199188</v>
+        <v>1.20462405475476</v>
       </c>
       <c r="C19">
-        <v>0.180330818283494</v>
+        <v>0.2036257927236136</v>
       </c>
       <c r="D19">
-        <v>0.07908838815323804</v>
+        <v>0.0869389429599039</v>
       </c>
       <c r="E19">
-        <v>0.04978544252074713</v>
+        <v>0.04286436558685125</v>
       </c>
       <c r="F19">
-        <v>1.143627987658675</v>
+        <v>0.940645062804478</v>
       </c>
       <c r="G19">
-        <v>1.065988250403379</v>
+        <v>0.8356057127230088</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007444378251187267</v>
+        <v>0.005707466443068299</v>
       </c>
       <c r="J19">
-        <v>0.7096747788427962</v>
+        <v>0.6051099457604181</v>
       </c>
       <c r="K19">
-        <v>0.8013549183477053</v>
+        <v>0.6204231471014694</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2440748174760898</v>
       </c>
       <c r="M19">
-        <v>1.210099913107598</v>
+        <v>0.2226862273749219</v>
       </c>
       <c r="N19">
-        <v>0.2113948001162953</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2773459157639167</v>
+        <v>1.264144055770686</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2223043907106472</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2755665997174432</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.286394109397435</v>
+        <v>1.251767583970803</v>
       </c>
       <c r="C20">
-        <v>0.1859591776643867</v>
+        <v>0.2105032658376587</v>
       </c>
       <c r="D20">
-        <v>0.08014789492941077</v>
+        <v>0.08924384906857341</v>
       </c>
       <c r="E20">
-        <v>0.05023895653959265</v>
+        <v>0.04319930848425813</v>
       </c>
       <c r="F20">
-        <v>1.165806535989176</v>
+        <v>0.9495798751056839</v>
       </c>
       <c r="G20">
-        <v>1.084471260767629</v>
+        <v>0.8539791217904593</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.006535394701131736</v>
+        <v>0.005133657066633823</v>
       </c>
       <c r="J20">
-        <v>0.7161544072345691</v>
+        <v>0.5911099012181609</v>
       </c>
       <c r="K20">
-        <v>0.8086777578876507</v>
+        <v>0.6189165764551205</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2414899072718697</v>
       </c>
       <c r="M20">
-        <v>1.257868409939249</v>
+        <v>0.2246483493394145</v>
       </c>
       <c r="N20">
-        <v>0.2179379694711372</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2879707471888864</v>
+        <v>1.312967233679927</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2290334312811382</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2861393615008936</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.450975751572628</v>
+        <v>1.413793857189489</v>
       </c>
       <c r="C21">
-        <v>0.2045055764265982</v>
+        <v>0.2295497710202454</v>
       </c>
       <c r="D21">
-        <v>0.08353990524895494</v>
+        <v>0.09903373540095117</v>
       </c>
       <c r="E21">
-        <v>0.05188525517674236</v>
+        <v>0.04473111174324274</v>
       </c>
       <c r="F21">
-        <v>1.245013198702111</v>
+        <v>0.9575582068250981</v>
       </c>
       <c r="G21">
-        <v>1.151479451607983</v>
+        <v>0.957142579756578</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.00396036081812845</v>
+        <v>0.003483963161264647</v>
       </c>
       <c r="J21">
-        <v>0.7404888493720279</v>
+        <v>0.4816992174273764</v>
       </c>
       <c r="K21">
-        <v>0.8366615586661652</v>
+        <v>0.6010782957162206</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.228473796212004</v>
       </c>
       <c r="M21">
-        <v>1.418391820591779</v>
+        <v>0.2266302525107342</v>
       </c>
       <c r="N21">
-        <v>0.240177554499283</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3239355420348957</v>
+        <v>1.472450826095098</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2511898799489956</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3219954880760412</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.560147633859827</v>
+        <v>1.521356546605006</v>
       </c>
       <c r="C22">
-        <v>0.2158843298949762</v>
+        <v>0.2407621093989576</v>
       </c>
       <c r="D22">
-        <v>0.08549415586132625</v>
+        <v>0.1055646254515707</v>
       </c>
       <c r="E22">
-        <v>0.05312662635163434</v>
+        <v>0.04592661258063835</v>
       </c>
       <c r="F22">
-        <v>1.30298458693845</v>
+        <v>0.9645807064634226</v>
       </c>
       <c r="G22">
-        <v>1.201914064118085</v>
+        <v>1.037510506504134</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.00251402487929564</v>
+        <v>0.002397540678018117</v>
       </c>
       <c r="J22">
-        <v>0.759804715721927</v>
+        <v>0.4163620938668942</v>
       </c>
       <c r="K22">
-        <v>0.8597043631269088</v>
+        <v>0.5912321514873184</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2208177412998218</v>
       </c>
       <c r="M22">
-        <v>1.522775769250018</v>
+        <v>0.2289179786314079</v>
       </c>
       <c r="N22">
-        <v>0.254805538609105</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3476981011029636</v>
+        <v>1.575468893227168</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2656718376049128</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3456420197963581</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.502932767630938</v>
+        <v>1.464354578572028</v>
       </c>
       <c r="C23">
-        <v>0.2089050267907027</v>
+        <v>0.2344570630252747</v>
       </c>
       <c r="D23">
-        <v>0.08420789763638936</v>
+        <v>0.1012958454853319</v>
       </c>
       <c r="E23">
-        <v>0.0525929761315691</v>
+        <v>0.04532990465819253</v>
       </c>
       <c r="F23">
-        <v>1.276630893508781</v>
+        <v>0.9695869833610118</v>
       </c>
       <c r="G23">
-        <v>1.180095742749486</v>
+        <v>0.9910059097546338</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.002898583211787376</v>
+        <v>0.002542566960245907</v>
       </c>
       <c r="J23">
-        <v>0.7520768186337961</v>
+        <v>0.463540695592414</v>
       </c>
       <c r="K23">
-        <v>0.8513120948621449</v>
+        <v>0.6023436372410984</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.226871521304119</v>
       </c>
       <c r="M23">
-        <v>1.465843435624407</v>
+        <v>0.2300806877951587</v>
       </c>
       <c r="N23">
-        <v>0.2467495643825686</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3350621699956235</v>
+        <v>1.520232361780756</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.257853418212548</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3330401473935467</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.285375649846856</v>
+        <v>1.250675085911865</v>
       </c>
       <c r="C24">
-        <v>0.1843044286797806</v>
+        <v>0.2085536634826752</v>
       </c>
       <c r="D24">
-        <v>0.07972431556159165</v>
+        <v>0.08866270484582373</v>
       </c>
       <c r="E24">
-        <v>0.05041467341309058</v>
+        <v>0.04334353915534273</v>
       </c>
       <c r="F24">
-        <v>1.171764006205336</v>
+        <v>0.9550361784229011</v>
       </c>
       <c r="G24">
-        <v>1.091403740325518</v>
+        <v>0.8592751509349768</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.006028880390990032</v>
+        <v>0.004520823074559033</v>
       </c>
       <c r="J24">
-        <v>0.719835517479126</v>
+        <v>0.5952612166193063</v>
       </c>
       <c r="K24">
-        <v>0.8143265720649211</v>
+        <v>0.6236443980141644</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2433023623063946</v>
       </c>
       <c r="M24">
-        <v>1.253485328902485</v>
+        <v>0.2263526310261348</v>
       </c>
       <c r="N24">
-        <v>0.217245203883536</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2874822487234852</v>
+        <v>1.308627626261597</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2283520848619389</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2856460539707868</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.052253883230804</v>
+        <v>1.026842831006178</v>
       </c>
       <c r="C25">
-        <v>0.1583835717978701</v>
+        <v>0.1734708577702406</v>
       </c>
       <c r="D25">
-        <v>0.07484601671177415</v>
+        <v>0.07981647899910627</v>
       </c>
       <c r="E25">
-        <v>0.04818225967263245</v>
+        <v>0.04195703203194157</v>
       </c>
       <c r="F25">
-        <v>1.063714639182152</v>
+        <v>0.8859731674367026</v>
       </c>
       <c r="G25">
-        <v>1.00046448644845</v>
+        <v>0.8021412885485546</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01166262432394749</v>
+        <v>0.008431696327713567</v>
       </c>
       <c r="J25">
-        <v>0.6876982539528456</v>
+        <v>0.5874775363172091</v>
       </c>
       <c r="K25">
-        <v>0.7769552893006733</v>
+        <v>0.6141674544442779</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2494423307393419</v>
       </c>
       <c r="M25">
-        <v>1.026718040387181</v>
+        <v>0.2116318904475314</v>
       </c>
       <c r="N25">
-        <v>0.1866407201022113</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2368431077580375</v>
+        <v>1.07245747443838</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1962027554694146</v>
       </c>
       <c r="Q25">
+        <v>0.2353111103392465</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
